--- a/db_structure/901. Generated Transaction Tables.xlsx
+++ b/db_structure/901. Generated Transaction Tables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,6 +595,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -630,6 +647,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -808,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +882,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -862,7 +896,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
@@ -876,7 +910,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
@@ -890,7 +924,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
         <v>94</v>
@@ -968,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>

--- a/db_structure/901. Generated Transaction Tables.xlsx
+++ b/db_structure/901. Generated Transaction Tables.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D1CBE04C-FB2F-4383-8980-25AC670EAB30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Table ID</t>
   </si>
@@ -438,12 +439,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>New Version Mysql</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -839,11 +846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,21 +859,22 @@
     <col min="3" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -879,8 +887,11 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>183</v>
       </c>
@@ -893,8 +904,11 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>184</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="E8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>185</v>
       </c>
@@ -921,8 +938,11 @@
       <c r="E9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>186</v>
       </c>
@@ -936,22 +956,22 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -999,11 +1019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
